--- a/biology/Zoologie/Ctenodactylomorphi/Ctenodactylomorphi.xlsx
+++ b/biology/Zoologie/Ctenodactylomorphi/Ctenodactylomorphi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ctenodactylomorphi sont un infra-ordre de rongeurs ne comportant qu'une seule famille, celle des Ctenodactylidae, les goundis.
 La classification des goundis est encore discutée. Selon les auteurs, la famille des Ctenodactylidae est classé dans cet infra-ordre, lui-même dans le sous-ordre des Hystricomorpha (ADW et MSW), alors que d'autres placent la famille des Ctenodactylidae directement dans le sous-ordre des Sciurognathi (NCBI) ou bien des Sciuravida (ITIS).
@@ -513,9 +525,11 @@
           <t>Sous-taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (1 Fév. 2012)[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (1 Fév. 2012)
 famille : Ctenodactylidae - Goundis</t>
         </is>
       </c>
